--- a/Tipo_de_Datos.xlsx
+++ b/Tipo_de_Datos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1813,7 @@
         <v>96</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12" t="s">
